--- a/docs/InputEXCEL_v3_3_7_WIN.xlsx
+++ b/docs/InputEXCEL_v3_3_7_WIN.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>InputMap</t>
   </si>
@@ -89,12 +89,6 @@
     <t>Method_radiation_inst</t>
   </si>
   <si>
-    <t>Hot_Pixel_Constant_Landsat</t>
-  </si>
-  <si>
-    <t>Cold_Pixel_Constant_Landsat</t>
-  </si>
-  <si>
     <t>Obstacle Height</t>
   </si>
   <si>
@@ -255,6 +249,21 @@
   </si>
   <si>
     <t>D:\PySebal\test_data\input\dem_dal.tif</t>
+  </si>
+  <si>
+    <t>tscold_min</t>
+  </si>
+  <si>
+    <t>tscold_max</t>
+  </si>
+  <si>
+    <t>ndvihot_high</t>
+  </si>
+  <si>
+    <t>ndvihot_low</t>
+  </si>
+  <si>
+    <t>temp_lapse_rate</t>
   </si>
 </sst>
 </file>
@@ -734,19 +743,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -754,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -767,7 +776,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -775,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -783,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -791,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -799,7 +808,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -829,56 +838,56 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -942,13 +951,13 @@
         <v>18</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -998,7 +1007,7 @@
         <v>0.4</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1020,7 +1029,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="R3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1042,7 +1051,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="R4" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1064,7 +1073,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="R5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1086,7 +1095,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="R6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1094,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1102,7 +1111,7 @@
         <v>7</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1161,28 +1170,28 @@
         <v>3</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1246,7 +1255,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="K4" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1262,7 +1271,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="K5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1278,7 +1287,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="K6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1286,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1294,7 +1303,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1333,7 +1342,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1342,8 +1351,11 @@
     <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1361,10 +1373,19 @@
         <v>7</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1372,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4">
         <v>8</v>
@@ -1381,13 +1402,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="4">
-        <v>2</v>
+        <v>285</v>
       </c>
       <c r="F2" s="4">
-        <v>0.5</v>
+        <v>320</v>
+      </c>
+      <c r="G2">
+        <v>0.03</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1400,7 +1430,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="J3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1413,7 +1443,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="J4" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1421,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1430,7 +1460,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="J6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1438,7 +1468,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1446,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1484,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1505,22 +1535,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1528,11 +1558,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -1544,7 +1574,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1552,11 +1582,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -1568,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1582,7 +1612,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="I4" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1590,7 +1620,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1598,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1606,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1614,7 +1644,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1652,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,22 +1698,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1691,13 +1721,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -1746,19 +1776,19 @@
         <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -1767,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1776,7 +1806,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="H3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1784,7 +1814,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1792,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1800,7 +1830,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1808,7 +1838,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1816,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">

--- a/docs/InputEXCEL_v3_3_7_WIN.xlsx
+++ b/docs/InputEXCEL_v3_3_7_WIN.xlsx
@@ -239,18 +239,9 @@
     <t>PROBAV_S5_TOC_X21Y04_20160621_100M_V001</t>
   </si>
   <si>
-    <t>D:\PySebal\test_data\input\insat</t>
-  </si>
-  <si>
-    <t>D:\PySebal\test_data\output</t>
-  </si>
-  <si>
     <t>LC08_L1TP_173049_20140310_20170425_01_T1</t>
   </si>
   <si>
-    <t>D:\PySebal\test_data\input\dem_dal.tif</t>
-  </si>
-  <si>
     <t>tscold_min</t>
   </si>
   <si>
@@ -264,6 +255,15 @@
   </si>
   <si>
     <t>temp_lapse_rate</t>
+  </si>
+  <si>
+    <t>D:\PySEBAL_dev\test_data\input\insat</t>
+  </si>
+  <si>
+    <t>D:\PySEBAL_dev\test_data\output</t>
+  </si>
+  <si>
+    <t>D:\PySEBAL_dev\test_data\input\dem_dal.tif</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,16 +743,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>33</v>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1373,19 +1373,19 @@
         <v>7</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4">
         <v>8</v>
@@ -1402,19 +1402,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="4">
-        <v>285</v>
+        <v>306.47000000000003</v>
       </c>
       <c r="F2" s="4">
-        <v>320</v>
+        <v>307.06</v>
       </c>
       <c r="G2">
-        <v>0.03</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
-        <v>8.5000000000000006E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>33</v>

--- a/docs/InputEXCEL_v3_3_7_WIN.xlsx
+++ b/docs/InputEXCEL_v3_3_7_WIN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5748" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5748"/>
   </bookViews>
   <sheets>
     <sheet name="General_Input" sheetId="1" r:id="rId1"/>
@@ -257,13 +257,13 @@
     <t>temp_lapse_rate</t>
   </si>
   <si>
-    <t>D:\PySEBAL_dev\test_data\input\insat</t>
-  </si>
-  <si>
-    <t>D:\PySEBAL_dev\test_data\output</t>
-  </si>
-  <si>
-    <t>D:\PySEBAL_dev\test_data\input\dem_dal.tif</t>
+    <t>D:\PySEBAL\test_data\input\insat</t>
+  </si>
+  <si>
+    <t>D:\PySEBAL\test_data\output</t>
+  </si>
+  <si>
+    <t>D:\PySEBAL\test_data\input\dem_dal.tif</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1402,16 +1402,16 @@
         <v>2</v>
       </c>
       <c r="E2" s="4">
-        <v>306.47000000000003</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4">
-        <v>307.06</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>7.9000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>6.4999999999999997E-3</v>

--- a/docs/InputEXCEL_v3_3_7_WIN.xlsx
+++ b/docs/InputEXCEL_v3_3_7_WIN.xlsx
@@ -257,13 +257,13 @@
     <t>temp_lapse_rate</t>
   </si>
   <si>
-    <t>D:\PySEBAL\test_data\input\insat</t>
-  </si>
-  <si>
-    <t>D:\PySEBAL\test_data\output</t>
-  </si>
-  <si>
-    <t>D:\PySEBAL\test_data\input\dem_dal.tif</t>
+    <t>D:\PySEBAL_dev\test_data\input\dem_dal.tif</t>
+  </si>
+  <si>
+    <t>D:\PySEBAL_dev\test_data\input\insat</t>
+  </si>
+  <si>
+    <t>D:\PySEBAL_dev\test_data\output</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,16 +743,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>33</v>

--- a/docs/InputEXCEL_v3_3_7_WIN.xlsx
+++ b/docs/InputEXCEL_v3_3_7_WIN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PySebal\PySEBAL_Pareeth\PySEBAL_dev\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PySebal\PySEBAL_Pareeth\PySEBAL_dev\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5748"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5745" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General_Input" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="MODIS_Input" sheetId="7" r:id="rId6"/>
     <sheet name="Additional_Input" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -704,24 +704,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5546875" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -758,7 +758,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -766,7 +766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -811,38 +811,38 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
@@ -850,7 +850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
@@ -858,7 +858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>43</v>
       </c>
@@ -866,7 +866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
@@ -874,7 +874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
@@ -882,7 +882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
@@ -902,18 +902,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -960,7 +960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1114,27 +1114,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1153,19 +1153,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1"/>
-    <col min="8" max="11" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1306,27 +1306,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1341,25 +1341,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>6.4999999999999997E-3</v>
@@ -1420,7 +1420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1479,27 +1479,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1518,19 +1518,19 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1647,27 +1647,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1686,14 +1686,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1762,16 +1762,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1849,28 +1849,28 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>

--- a/docs/InputEXCEL_v3_3_7_WIN.xlsx
+++ b/docs/InputEXCEL_v3_3_7_WIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PySebal\PySEBAL_Pareeth\PySEBAL_dev\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PySEBAL_dev\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B430243-E4E1-46EB-87E6-B9E1D5259DFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5745" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Input" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="MODIS_Input" sheetId="7" r:id="rId6"/>
     <sheet name="Additional_Input" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -263,13 +264,13 @@
     <t>D:\PySEBAL_dev\test_data\input\insat</t>
   </si>
   <si>
-    <t>D:\PySEBAL_dev\test_data\output</t>
+    <t>D:\PySEBAL_dev\test_data\output_win</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -701,27 +702,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5703125" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5546875" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -738,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -758,7 +759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -766,7 +767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -779,7 +780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -787,7 +788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -795,7 +796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -803,7 +804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -811,38 +812,38 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
@@ -850,7 +851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
@@ -858,7 +859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>43</v>
       </c>
@@ -866,7 +867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
@@ -874,7 +875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
@@ -882,7 +883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
@@ -897,23 +898,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -960,7 +961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1114,27 +1115,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1146,26 +1147,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+    <col min="8" max="11" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1242,7 +1243,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1306,27 +1307,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1338,28 +1339,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>6.4999999999999997E-3</v>
@@ -1420,7 +1421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1479,27 +1480,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1511,26 +1512,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1647,27 +1648,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1679,21 +1680,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1755,23 +1756,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1792,7 +1793,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1849,28 +1850,28 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
